--- a/KeHoachNhom25.xlsx
+++ b/KeHoachNhom25.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HaUI\Ky7\DoAn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HaUI\Ky7\DoAn\DoAnChuyenNganh_Nhom25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA05943-07C2-4FF2-8009-FD8E49F08E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D421171-908F-4F6B-BE7B-0377AC34A5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="69">
   <si>
     <t>Kế hoạch làm việc nhóm</t>
   </si>
@@ -224,9 +224,6 @@
     <t>15/12/2024</t>
   </si>
   <si>
-    <t>14/12/2024</t>
-  </si>
-  <si>
     <t>Triệu Anh Tuấn</t>
   </si>
   <si>
@@ -242,14 +239,17 @@
     <t>16/12/2024</t>
   </si>
   <si>
-    <t>17/12/2024</t>
+    <t>20/12/2024</t>
+  </si>
+  <si>
+    <t>18/12/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -284,13 +284,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -336,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -384,12 +377,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -622,8 +609,8 @@
   </sheetPr>
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -636,17 +623,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -666,17 +653,17 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -696,17 +683,17 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -726,17 +713,17 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -756,17 +743,17 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1033,11 +1020,15 @@
       <c r="F11" s="14">
         <v>44876</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="H11" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1074,11 +1065,15 @@
       <c r="F12" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="13"/>
+      <c r="G12" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="H12" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1115,11 +1110,15 @@
       <c r="F13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="H13" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1157,11 +1156,15 @@
       <c r="F14" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="H14" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
-      <c r="I14" s="9"/>
+      <c r="I14" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1199,11 +1202,15 @@
       <c r="F15" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="13"/>
+      <c r="G15" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="H15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1241,11 +1248,15 @@
       <c r="F16" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="9"/>
+      <c r="G16" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="H16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="17"/>
+      <c r="I16" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1283,11 +1294,15 @@
       <c r="F17" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="9"/>
+      <c r="G17" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="H17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="18"/>
+      <c r="I17" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1325,11 +1340,15 @@
       <c r="F18" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="H18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="18"/>
+      <c r="I18" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1367,11 +1386,15 @@
       <c r="F19" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="H19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="9"/>
+      <c r="I19" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1409,11 +1432,15 @@
       <c r="F20" s="16">
         <v>45333</v>
       </c>
-      <c r="G20" s="9"/>
+      <c r="G20" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="H20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="9"/>
+      <c r="I20" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1451,11 +1478,15 @@
       <c r="F21" s="11">
         <v>45576</v>
       </c>
-      <c r="G21" s="9"/>
+      <c r="G21" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="H21" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
-      <c r="I21" s="9"/>
+      <c r="I21" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1493,11 +1524,15 @@
       <c r="F22" s="11">
         <v>45576</v>
       </c>
-      <c r="G22" s="9"/>
+      <c r="G22" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="H22" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
-      <c r="I22" s="9"/>
+      <c r="I22" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1535,11 +1570,15 @@
       <c r="F23" s="11">
         <v>45576</v>
       </c>
-      <c r="G23" s="9"/>
+      <c r="G23" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="H23" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
-      <c r="I23" s="9"/>
+      <c r="I23" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1577,11 +1616,15 @@
       <c r="F24" s="11">
         <v>45576</v>
       </c>
-      <c r="G24" s="9"/>
+      <c r="G24" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="H24" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
-      <c r="I24" s="9"/>
+      <c r="I24" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1619,11 +1662,15 @@
       <c r="F25" s="11">
         <v>45576</v>
       </c>
-      <c r="G25" s="9"/>
+      <c r="G25" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="H25" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="9"/>
+      <c r="I25" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1661,11 +1708,15 @@
       <c r="F26" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="9"/>
+      <c r="G26" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="H26" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I26" s="9"/>
+      <c r="I26" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1703,11 +1754,15 @@
       <c r="F27" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="9"/>
+      <c r="G27" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="H27" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
-      <c r="I27" s="9"/>
+      <c r="I27" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1745,11 +1800,15 @@
       <c r="F28" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="9"/>
+      <c r="G28" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="H28" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
-      <c r="I28" s="9"/>
+      <c r="I28" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1787,11 +1846,15 @@
       <c r="F29" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="9"/>
+      <c r="G29" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="H29" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
-      <c r="I29" s="9"/>
+      <c r="I29" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1829,11 +1892,15 @@
       <c r="F30" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G30" s="9"/>
+      <c r="G30" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="H30" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
-      <c r="I30" s="9"/>
+      <c r="I30" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1871,11 +1938,15 @@
       <c r="F31" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="9"/>
+      <c r="G31" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="H31" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="9"/>
+      <c r="I31" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -1913,11 +1984,15 @@
       <c r="F32" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G32" s="9"/>
+      <c r="G32" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="H32" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="9"/>
+      <c r="I32" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -1940,7 +2015,7 @@
       <c r="A33" s="13">
         <v>29</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="17" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="13" t="s">
@@ -1950,16 +2025,20 @@
         <v>60</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
-      <c r="G33" s="13"/>
+      <c r="G33" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="H33" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I33" s="13"/>
+      <c r="I33" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -1982,26 +2061,30 @@
       <c r="A34" s="13">
         <v>30</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="17" t="s">
         <v>45</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
-      <c r="G34" s="13"/>
+      <c r="G34" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="H34" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I34" s="13"/>
+      <c r="I34" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2024,26 +2107,30 @@
       <c r="A35" s="13">
         <v>31</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C35" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="F35" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>68</v>
+      <c r="G35" s="13" t="s">
+        <v>11</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G35" s="13"/>
       <c r="H35" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I35" s="13"/>
+      <c r="I35" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
